--- a/Arrays/DSA_sorting.xlsx
+++ b/Arrays/DSA_sorting.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tung\Data Structures and Algorithms\Data-Structures-and-Algorithms\Arrays\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tungv\Github_codes\Data-Structures-and-Algorithms\Arrays\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DA15770-C485-450B-84F8-757BEF083EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8ABDE39-4272-42C1-AE87-54882F4DE425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{13BE3CFF-BB86-4162-BBA4-4684B762F249}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{13BE3CFF-BB86-4162-BBA4-4684B762F249}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Bubble sort</t>
   </si>
@@ -48,60 +48,6 @@
   </si>
   <si>
     <t>Quick sort</t>
-  </si>
-  <si>
-    <t>volumn</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>0.125s</t>
-  </si>
-  <si>
-    <t>9.709s</t>
-  </si>
-  <si>
-    <t>987.878s</t>
-  </si>
-  <si>
-    <t>1580.02s</t>
-  </si>
-  <si>
-    <t>0.156s</t>
-  </si>
-  <si>
-    <t>4.278s</t>
-  </si>
-  <si>
-    <t>507.461s</t>
-  </si>
-  <si>
-    <t>792.301s</t>
-  </si>
-  <si>
-    <t>0.205s</t>
-  </si>
-  <si>
-    <t>4.14s</t>
-  </si>
-  <si>
-    <t>677.111s</t>
-  </si>
-  <si>
-    <t>801.296s</t>
-  </si>
-  <si>
-    <t>0.176s</t>
-  </si>
-  <si>
-    <t>0.087s</t>
-  </si>
-  <si>
-    <t>0.446s</t>
-  </si>
-  <si>
-    <t>0.595s</t>
   </si>
 </sst>
 </file>
@@ -137,8 +83,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -159,20 +114,1138 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.7914260717410325E-2"/>
+          <c:y val="0.15782407407407409"/>
+          <c:w val="0.87764129483814524"/>
+          <c:h val="0.6153546952464275"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bubble sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.7089999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>987.87800000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1580.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-80DF-48EB-9BDC-E9675A2CDD89}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Selection sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.156</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2779999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>507.46100000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>792.30100000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-80DF-48EB-9BDC-E9675A2CDD89}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insertion short</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.20499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>677.11099999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>801.29600000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-80DF-48EB-9BDC-E9675A2CDD89}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quick sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.6999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59499999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-80DF-48EB-9BDC-E9675A2CDD89}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1780196207"/>
+        <c:axId val="1780190447"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1780196207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1780190447"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1780190447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1780196207"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>238126</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>99681</xdr:rowOff>
+      <xdr:colOff>394412</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>58105</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>100251</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>139374</xdr:rowOff>
+      <xdr:colOff>256538</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>97797</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -201,8 +1274,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5919899" y="99681"/>
-          <a:ext cx="4126224" cy="2863966"/>
+          <a:off x="6525581" y="421520"/>
+          <a:ext cx="4129326" cy="2765308"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -211,11 +1284,43 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>597299</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>140677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>480681</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>159284</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5F27145-FE12-8696-F4C5-B33A3630827D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -535,174 +1640,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38501CB6-2D3E-4ACA-9FC5-12C439063370}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1000</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="C2">
+        <v>0.156</v>
+      </c>
+      <c r="D2">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="E2">
+        <v>8.6999999999999994E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1000</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="1"/>
+        <v>10000</v>
+      </c>
+      <c r="B3" s="3">
+        <v>9.7089999999999996</v>
+      </c>
+      <c r="C3">
+        <v>4.2779999999999996</v>
+      </c>
+      <c r="D3">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="E3">
+        <v>0.17599999999999999</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10000</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="1"/>
+      <c r="B4" s="3">
+        <v>987.87800000000004</v>
+      </c>
+      <c r="C4">
+        <v>507.46100000000001</v>
+      </c>
+      <c r="D4">
+        <v>677.11099999999999</v>
+      </c>
+      <c r="E4">
+        <v>0.44600000000000001</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>10000</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="1"/>
+        <v>125000</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1580.02</v>
+      </c>
+      <c r="C5">
+        <v>792.30100000000004</v>
+      </c>
+      <c r="D5">
+        <v>801.29600000000005</v>
+      </c>
+      <c r="E5">
+        <v>0.59499999999999997</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>125000</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="1"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
+  <mergeCells count="2">
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="G8:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Arrays/DSA_sorting.xlsx
+++ b/Arrays/DSA_sorting.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tungv\Github_codes\Data-Structures-and-Algorithms\Arrays\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tung\Data Structures and Algorithms\Data-Structures-and-Algorithms\Arrays\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8ABDE39-4272-42C1-AE87-54882F4DE425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C563BF1-ADD8-487D-92BE-015B0AB70A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{13BE3CFF-BB86-4162-BBA4-4684B762F249}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{13BE3CFF-BB86-4162-BBA4-4684B762F249}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Bubble sort</t>
   </si>
@@ -48,6 +48,15 @@
   </si>
   <si>
     <t>Quick sort</t>
+  </si>
+  <si>
+    <t>Counting sort</t>
+  </si>
+  <si>
+    <t>Radix sort</t>
+  </si>
+  <si>
+    <t>Merge sort</t>
   </si>
 </sst>
 </file>
@@ -160,17 +169,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="7.7914260717410325E-2"/>
-          <c:y val="0.15782407407407409"/>
-          <c:w val="0.87764129483814524"/>
-          <c:h val="0.6153546952464275"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -213,7 +212,7 @@
                   <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>125000</c:v>
@@ -245,7 +244,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-80DF-48EB-9BDC-E9675A2CDD89}"/>
+              <c16:uniqueId val="{00000000-7B4F-4B04-B32E-F5ECC934FAC7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -288,7 +287,7 @@
                   <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>125000</c:v>
@@ -320,7 +319,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-80DF-48EB-9BDC-E9675A2CDD89}"/>
+              <c16:uniqueId val="{00000001-7B4F-4B04-B32E-F5ECC934FAC7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -363,7 +362,7 @@
                   <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>125000</c:v>
@@ -395,7 +394,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-80DF-48EB-9BDC-E9675A2CDD89}"/>
+              <c16:uniqueId val="{00000002-7B4F-4B04-B32E-F5ECC934FAC7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -438,7 +437,7 @@
                   <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>125000</c:v>
@@ -470,7 +469,234 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-80DF-48EB-9BDC-E9675A2CDD89}"/>
+              <c16:uniqueId val="{00000003-7B4F-4B04-B32E-F5ECC934FAC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Counting sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6029999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7B4F-4B04-B32E-F5ECC934FAC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Radix sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.13900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.798</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>361.06299999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>571.11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7B4F-4B04-B32E-F5ECC934FAC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merge sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.112</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.157</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70899999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-7B4F-4B04-B32E-F5ECC934FAC7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -483,11 +709,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1780196207"/>
-        <c:axId val="1780190447"/>
+        <c:axId val="1557695647"/>
+        <c:axId val="1557693727"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1780196207"/>
+        <c:axId val="1557695647"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -530,7 +756,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1780190447"/>
+        <c:crossAx val="1557693727"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -538,7 +764,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1780190447"/>
+        <c:axId val="1557693727"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -589,7 +815,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1780196207"/>
+        <c:crossAx val="1557695647"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1234,75 +1460,25 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>394412</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>58105</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>256538</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>97797</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{997BFBB9-76DE-35CC-3EF2-B05470FCAC3E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6525581" y="421520"/>
-          <a:ext cx="4129326" cy="2765308"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>597299</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>140677</xdr:rowOff>
+      <xdr:rowOff>49823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>480681</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>159284</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>311394</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>126023</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5F27145-FE12-8696-F4C5-B33A3630827D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49059B27-32B6-91C1-A942-FCD5636BAA54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1314,7 +1490,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1643,16 +1819,20 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G8" sqref="G8:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1665,8 +1845,17 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -1682,8 +1871,17 @@
       <c r="E2">
         <v>8.6999999999999994E-2</v>
       </c>
+      <c r="F2">
+        <v>4.016</v>
+      </c>
+      <c r="G2">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="H2">
+        <v>0.112</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10000</v>
       </c>
@@ -1699,10 +1897,19 @@
       <c r="E3">
         <v>0.17599999999999999</v>
       </c>
+      <c r="F3">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="G3">
+        <v>2.798</v>
+      </c>
+      <c r="H3">
+        <v>0.157</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="B4" s="3">
         <v>987.87800000000004</v>
@@ -1716,8 +1923,17 @@
       <c r="E4">
         <v>0.44600000000000001</v>
       </c>
+      <c r="F4">
+        <v>4.9569999999999999</v>
+      </c>
+      <c r="G4">
+        <v>361.06299999999999</v>
+      </c>
+      <c r="H4">
+        <v>0.58899999999999997</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>125000</v>
       </c>
@@ -1733,12 +1949,21 @@
       <c r="E5">
         <v>0.59499999999999997</v>
       </c>
+      <c r="F5">
+        <v>4.6029999999999998</v>
+      </c>
+      <c r="G5">
+        <v>571.11</v>
+      </c>
+      <c r="H5">
+        <v>0.70899999999999996</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="1"/>
